--- a/results/mp/logistic/home-spam/confidence/168/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/168/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,234 +40,345 @@
     <t>name</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>return</t>
+    <t>waste</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>plates</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>returning</t>
+  </si>
+  <si>
+    <t>spray</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>useless</t>
+    <t>not</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>sticks</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>grind</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>cracked</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>instructions</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>months</t>
+    <t>1</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>filter</t>
+    <t>after</t>
+  </si>
+  <si>
+    <t>sharpe</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>doesn</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>lasted</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
-    <t>spray</t>
-  </si>
-  <si>
-    <t>thick</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>instructions</t>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>did</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
     <t>fit</t>
   </si>
   <si>
-    <t>side</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>didn</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>2</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>year</t>
+    <t>were</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>when</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>one</t>
+    <t>this</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -283,58 +394,22 @@
     <t>perfectly</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>ze</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -695,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,10 +778,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -764,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9245283018867925</v>
+        <v>0.9380530973451328</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -782,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="K3">
-        <v>0.8387096774193549</v>
+        <v>0.8203125</v>
       </c>
       <c r="L3">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="M3">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -806,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -814,13 +889,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9203539823008849</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -835,16 +910,16 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K4">
-        <v>0.8260869565217391</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -856,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -864,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -882,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="K5">
-        <v>0.8125</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="L5">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="M5">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -906,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -914,13 +989,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8983050847457628</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="C6">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -932,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="K6">
-        <v>0.7254237288135593</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L6">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M6">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -956,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -964,13 +1039,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8888888888888888</v>
+        <v>0.86</v>
       </c>
       <c r="C7">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="K7">
-        <v>0.7120743034055728</v>
+        <v>0.5928792569659442</v>
       </c>
       <c r="L7">
-        <v>460</v>
+        <v>383</v>
       </c>
       <c r="M7">
-        <v>460</v>
+        <v>383</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1006,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>186</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1014,13 +1089,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8082191780821918</v>
+        <v>0.85</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1032,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="K8">
-        <v>0.5844155844155844</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1056,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1064,13 +1139,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7891891891891892</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1082,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="K9">
-        <v>0.5670995670995671</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L9">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="M9">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1106,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1114,13 +1189,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1132,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="K10">
-        <v>0.4078947368421053</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1156,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1164,13 +1239,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7272727272727273</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1182,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="K11">
-        <v>0.3835616438356164</v>
+        <v>0.2098765432098765</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1206,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1214,13 +1289,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.725</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1232,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="K12">
-        <v>0.3428571428571429</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="L12">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1256,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1264,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7037037037037037</v>
+        <v>0.7783783783783784</v>
       </c>
       <c r="C13">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="D13">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1282,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.1711711711711712</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1306,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1314,13 +1389,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6911764705882353</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C14">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1332,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="K14">
-        <v>0.3174603174603174</v>
+        <v>0.1637239165329053</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1356,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>43</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1364,13 +1439,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6901408450704225</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1382,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="K15">
-        <v>0.2882882882882883</v>
+        <v>0.05342465753424658</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1406,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>79</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1414,13 +1489,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C16">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1432,31 +1507,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="K16">
-        <v>0.2592592592592592</v>
+        <v>0.02023121387283237</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>60</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1464,13 +1539,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1482,31 +1557,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K17">
-        <v>0.254414125200642</v>
+        <v>0.003481894150417827</v>
       </c>
       <c r="L17">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>929</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1514,13 +1589,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6470588235294118</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1532,31 +1607,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="L18">
-        <v>15</v>
-      </c>
-      <c r="M18">
-        <v>15</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1564,13 +1615,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6415094339622641</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1582,31 +1633,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19">
-        <v>0.1630434782608696</v>
-      </c>
-      <c r="L19">
-        <v>15</v>
-      </c>
-      <c r="M19">
-        <v>15</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1614,13 +1641,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6279069767441861</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C20">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1632,31 +1659,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20">
-        <v>0.1442307692307692</v>
-      </c>
-      <c r="L20">
-        <v>15</v>
-      </c>
-      <c r="M20">
-        <v>15</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1664,13 +1667,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5945945945945946</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C21">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1682,31 +1685,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>60</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21">
-        <v>0.1342465753424658</v>
-      </c>
-      <c r="L21">
-        <v>98</v>
-      </c>
-      <c r="M21">
-        <v>98</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>632</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1714,13 +1693,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5925925925925926</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1732,31 +1711,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K22">
-        <v>0.1297709923664122</v>
-      </c>
-      <c r="L22">
-        <v>17</v>
-      </c>
-      <c r="M22">
-        <v>17</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1764,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5897435897435898</v>
+        <v>0.6047619047619047</v>
       </c>
       <c r="C23">
-        <v>46</v>
+        <v>1143</v>
       </c>
       <c r="D23">
-        <v>46</v>
+        <v>1143</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1782,31 +1737,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K23">
-        <v>0.1203007518796992</v>
-      </c>
-      <c r="L23">
-        <v>16</v>
-      </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>117</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1814,13 +1745,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5862068965517241</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1832,31 +1763,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K24">
-        <v>0.09933774834437085</v>
-      </c>
-      <c r="L24">
-        <v>15</v>
-      </c>
-      <c r="M24">
-        <v>15</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>136</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1864,13 +1771,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5849056603773585</v>
+        <v>0.5754716981132075</v>
       </c>
       <c r="C25">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1882,31 +1789,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>44</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25">
-        <v>0.05637254901960784</v>
-      </c>
-      <c r="L25">
-        <v>23</v>
-      </c>
-      <c r="M25">
-        <v>23</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>385</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1914,13 +1797,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5681818181818182</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1932,31 +1815,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K26">
-        <v>0.02785145888594165</v>
-      </c>
-      <c r="L26">
-        <v>21</v>
-      </c>
-      <c r="M26">
-        <v>22</v>
-      </c>
-      <c r="N26">
-        <v>0.95</v>
-      </c>
-      <c r="O26">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>733</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1964,13 +1823,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5663716814159292</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C27">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D27">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1982,31 +1841,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>49</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K27">
-        <v>0.02267818574514039</v>
-      </c>
-      <c r="L27">
-        <v>21</v>
-      </c>
-      <c r="M27">
-        <v>24</v>
-      </c>
-      <c r="N27">
-        <v>0.88</v>
-      </c>
-      <c r="O27">
-        <v>0.12</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>905</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2014,13 +1849,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5402298850574713</v>
+        <v>0.5625</v>
       </c>
       <c r="C28">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2032,31 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>40</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K28">
-        <v>0.02053915275994865</v>
-      </c>
-      <c r="L28">
-        <v>16</v>
-      </c>
-      <c r="M28">
-        <v>19</v>
-      </c>
-      <c r="N28">
-        <v>0.84</v>
-      </c>
-      <c r="O28">
-        <v>0.16</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>763</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2064,13 +1875,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5192307692307693</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C29">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2082,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2090,13 +1901,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5151515151515151</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2108,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2116,13 +1927,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4705882352941176</v>
+        <v>0.5407407407407407</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2134,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2142,13 +1953,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4466019417475728</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C32">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D32">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2160,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2168,13 +1979,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4423076923076923</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C33">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2186,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2194,13 +2005,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4411764705882353</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2212,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2220,13 +2031,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3966480446927375</v>
+        <v>0.5025641025641026</v>
       </c>
       <c r="C35">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D35">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2238,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2246,13 +2057,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3846153846153846</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2264,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2272,13 +2083,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3818181818181818</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2290,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2298,13 +2109,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3777777777777778</v>
+        <v>0.4247787610619469</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2316,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2324,13 +2135,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3571428571428572</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2342,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2350,13 +2161,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.33</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2368,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2376,13 +2187,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.305</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C41">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2394,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>139</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2402,13 +2213,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2777777777777778</v>
+        <v>0.3986486486486486</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2420,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2428,13 +2239,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2619047619047619</v>
+        <v>0.3495145631067961</v>
       </c>
       <c r="C43">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2446,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2454,7 +2265,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2459016393442623</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="C44">
         <v>15</v>
@@ -2472,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2480,13 +2291,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2424242424242424</v>
+        <v>0.3351351351351352</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2498,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>50</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2506,13 +2317,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2371134020618557</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2524,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2532,13 +2343,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2368421052631579</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2550,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2558,13 +2369,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2222222222222222</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2576,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2584,25 +2395,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2207792207792208</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2610,13 +2421,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2206896551724138</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C50">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2628,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2636,25 +2447,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2054054054054054</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="C51">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>294</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2662,13 +2473,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.202020202020202</v>
+        <v>0.2825278810408922</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2680,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>79</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2688,13 +2499,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1952380952380952</v>
+        <v>0.2755555555555556</v>
       </c>
       <c r="C53">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D53">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2706,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2714,13 +2525,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.186046511627907</v>
+        <v>0.2723492723492724</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>393</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>393</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2732,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>105</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2740,13 +2551,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1724137931034483</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2758,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2766,13 +2577,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1589403973509934</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C56">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D56">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2784,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2792,13 +2603,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1573033707865168</v>
+        <v>0.2569832402234637</v>
       </c>
       <c r="C57">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D57">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2810,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2818,13 +2629,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1462585034013605</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C58">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2836,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>251</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2844,13 +2655,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1351351351351351</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2862,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2870,13 +2681,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1344086021505376</v>
+        <v>0.217741935483871</v>
       </c>
       <c r="C60">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D60">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2888,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>161</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2896,13 +2707,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1327433628318584</v>
+        <v>0.1961538461538462</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2914,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>98</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2922,13 +2733,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1170068027210884</v>
+        <v>0.19</v>
       </c>
       <c r="C62">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2940,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>649</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2948,13 +2759,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1161616161616162</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2966,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>175</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2974,13 +2785,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1098901098901099</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2992,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>162</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3000,13 +2811,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1004366812227074</v>
+        <v>0.1592920353982301</v>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3018,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>206</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3026,13 +2837,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.09364548494983277</v>
+        <v>0.1590296495956873</v>
       </c>
       <c r="C66">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D66">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3044,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>271</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3052,13 +2863,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.09024390243902439</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="C67">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3070,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>373</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3078,13 +2889,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08604954367666232</v>
+        <v>0.1386666666666667</v>
       </c>
       <c r="C68">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="D68">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3096,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>701</v>
+        <v>969</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3104,13 +2915,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08241758241758242</v>
+        <v>0.125</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D69">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3122,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3130,13 +2941,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.06376811594202898</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="C70">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3148,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>323</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3156,25 +2967,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04580152671755725</v>
+        <v>0.1146496815286624</v>
       </c>
       <c r="C71">
         <v>18</v>
       </c>
       <c r="D71">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E71">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>375</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3182,25 +2993,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0387409200968523</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="C72">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D72">
         <v>17</v>
       </c>
       <c r="E72">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>397</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3208,25 +3019,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.02422145328719723</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="C73">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E73">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>1128</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3234,25 +3045,987 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0187793427230047</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="C74">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>19</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="C75">
+        <v>28</v>
+      </c>
+      <c r="D75">
+        <v>28</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.09473684210526316</v>
+      </c>
+      <c r="C76">
+        <v>18</v>
+      </c>
+      <c r="D76">
+        <v>18</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+      <c r="D77">
+        <v>24</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.06236559139784946</v>
+      </c>
+      <c r="C78">
+        <v>29</v>
+      </c>
+      <c r="D78">
+        <v>29</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.0580046403712297</v>
+      </c>
+      <c r="C79">
+        <v>75</v>
+      </c>
+      <c r="D79">
+        <v>75</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.05783582089552239</v>
+      </c>
+      <c r="C80">
+        <v>31</v>
+      </c>
+      <c r="D80">
+        <v>31</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.05741127348643006</v>
+      </c>
+      <c r="C81">
+        <v>55</v>
+      </c>
+      <c r="D81">
+        <v>55</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.05518763796909492</v>
+      </c>
+      <c r="C82">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <v>25</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.05493562231759656</v>
+      </c>
+      <c r="C83">
+        <v>128</v>
+      </c>
+      <c r="D83">
+        <v>130</v>
+      </c>
+      <c r="E83">
+        <v>0.02</v>
+      </c>
+      <c r="F83">
+        <v>0.98</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.05337078651685393</v>
+      </c>
+      <c r="C84">
+        <v>19</v>
+      </c>
+      <c r="D84">
         <v>20</v>
       </c>
-      <c r="D74">
+      <c r="E84">
+        <v>0.05</v>
+      </c>
+      <c r="F84">
+        <v>0.95</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.05015673981191222</v>
+      </c>
+      <c r="C85">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.04823989569752282</v>
+      </c>
+      <c r="C86">
+        <v>37</v>
+      </c>
+      <c r="D86">
+        <v>37</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.04632152588555858</v>
+      </c>
+      <c r="C87">
+        <v>17</v>
+      </c>
+      <c r="D87">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.0446521287642783</v>
+      </c>
+      <c r="C88">
+        <v>301</v>
+      </c>
+      <c r="D88">
+        <v>305</v>
+      </c>
+      <c r="E88">
+        <v>0.01</v>
+      </c>
+      <c r="F88">
+        <v>0.99</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.04353741496598639</v>
+      </c>
+      <c r="C89">
+        <v>32</v>
+      </c>
+      <c r="D89">
+        <v>32</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.0392156862745098</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
+      </c>
+      <c r="D90">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>0.06</v>
+      </c>
+      <c r="F90">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.03897550111358575</v>
+      </c>
+      <c r="C91">
+        <v>35</v>
+      </c>
+      <c r="D91">
+        <v>35</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>0.03861788617886179</v>
+      </c>
+      <c r="C92">
+        <v>19</v>
+      </c>
+      <c r="D92">
+        <v>19</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>0.03732394366197183</v>
+      </c>
+      <c r="C93">
+        <v>53</v>
+      </c>
+      <c r="D93">
+        <v>55</v>
+      </c>
+      <c r="E93">
+        <v>0.04</v>
+      </c>
+      <c r="F93">
+        <v>0.96</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.03719912472647702</v>
+      </c>
+      <c r="C94">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.03682934222491664</v>
+      </c>
+      <c r="C95">
+        <v>243</v>
+      </c>
+      <c r="D95">
+        <v>245</v>
+      </c>
+      <c r="E95">
+        <v>0.01</v>
+      </c>
+      <c r="F95">
+        <v>0.99</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.03300645778521884</v>
+      </c>
+      <c r="C96">
+        <v>138</v>
+      </c>
+      <c r="D96">
+        <v>140</v>
+      </c>
+      <c r="E96">
+        <v>0.01</v>
+      </c>
+      <c r="F96">
+        <v>0.99</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.03183023872679045</v>
+      </c>
+      <c r="C97">
+        <v>24</v>
+      </c>
+      <c r="D97">
+        <v>24</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.02950819672131148</v>
+      </c>
+      <c r="C98">
+        <v>18</v>
+      </c>
+      <c r="D98">
+        <v>18</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.02909298345693098</v>
+      </c>
+      <c r="C99">
+        <v>51</v>
+      </c>
+      <c r="D99">
+        <v>53</v>
+      </c>
+      <c r="E99">
+        <v>0.04</v>
+      </c>
+      <c r="F99">
+        <v>0.96</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.02824368613842298</v>
+      </c>
+      <c r="C100">
+        <v>293</v>
+      </c>
+      <c r="D100">
+        <v>301</v>
+      </c>
+      <c r="E100">
+        <v>0.03</v>
+      </c>
+      <c r="F100">
+        <v>0.97</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>10081</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.02180376610505451</v>
+      </c>
+      <c r="C101">
+        <v>66</v>
+      </c>
+      <c r="D101">
+        <v>69</v>
+      </c>
+      <c r="E101">
+        <v>0.04</v>
+      </c>
+      <c r="F101">
+        <v>0.96</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.02163275817666753</v>
+      </c>
+      <c r="C102">
+        <v>84</v>
+      </c>
+      <c r="D102">
+        <v>88</v>
+      </c>
+      <c r="E102">
+        <v>0.05</v>
+      </c>
+      <c r="F102">
+        <v>0.95</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.02039082412914189</v>
+      </c>
+      <c r="C103">
+        <v>24</v>
+      </c>
+      <c r="D103">
         <v>27</v>
       </c>
-      <c r="E74">
-        <v>0.26</v>
-      </c>
-      <c r="F74">
-        <v>0.74</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>1045</v>
+      <c r="E103">
+        <v>0.11</v>
+      </c>
+      <c r="F103">
+        <v>0.89</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.01917545541706616</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104">
+        <v>22</v>
+      </c>
+      <c r="E104">
+        <v>0.09</v>
+      </c>
+      <c r="F104">
+        <v>0.91</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.01816347124117054</v>
+      </c>
+      <c r="C105">
+        <v>18</v>
+      </c>
+      <c r="D105">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.01780645161290323</v>
+      </c>
+      <c r="C106">
+        <v>69</v>
+      </c>
+      <c r="D106">
+        <v>72</v>
+      </c>
+      <c r="E106">
+        <v>0.04</v>
+      </c>
+      <c r="F106">
+        <v>0.96</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.01469317199654278</v>
+      </c>
+      <c r="C107">
+        <v>17</v>
+      </c>
+      <c r="D107">
+        <v>17</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>0.01447906830343091</v>
+      </c>
+      <c r="C108">
+        <v>46</v>
+      </c>
+      <c r="D108">
+        <v>54</v>
+      </c>
+      <c r="E108">
+        <v>0.15</v>
+      </c>
+      <c r="F108">
+        <v>0.85</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>0.01295620437956204</v>
+      </c>
+      <c r="C109">
+        <v>71</v>
+      </c>
+      <c r="D109">
+        <v>80</v>
+      </c>
+      <c r="E109">
+        <v>0.11</v>
+      </c>
+      <c r="F109">
+        <v>0.89</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>0.01099303774276292</v>
+      </c>
+      <c r="C110">
+        <v>30</v>
+      </c>
+      <c r="D110">
+        <v>31</v>
+      </c>
+      <c r="E110">
+        <v>0.03</v>
+      </c>
+      <c r="F110">
+        <v>0.97</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>0.006939625260235947</v>
+      </c>
+      <c r="C111">
+        <v>30</v>
+      </c>
+      <c r="D111">
+        <v>45</v>
+      </c>
+      <c r="E111">
+        <v>0.33</v>
+      </c>
+      <c r="F111">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>4293</v>
       </c>
     </row>
   </sheetData>
